--- a/src/test/resources/test2.xlsx
+++ b/src/test/resources/test2.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pabloski\Class\ASW\citizensLoader_i1a\src\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pabloski\Class\ASW\citizensLoader_i1a\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,63 +24,327 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>Pepito</t>
-  </si>
-  <si>
-    <t>García González</t>
-  </si>
-  <si>
-    <t>pepitogg@gmail.com</t>
-  </si>
-  <si>
-    <t>7/10/1990</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>68725345B</t>
-  </si>
-  <si>
-    <t>Amancio</t>
-  </si>
-  <si>
-    <t>Ortega Souto</t>
-  </si>
-  <si>
-    <t>amancitort@gmail.com</t>
-  </si>
-  <si>
-    <t>15/8/1985</t>
-  </si>
-  <si>
-    <t>61253841B</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Smith White</t>
-  </si>
-  <si>
-    <t>whitesmit@gmail.com</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>C07813069</t>
-  </si>
-  <si>
-    <t>C/ La Cámara 24, 3ºB , Avilés, Asturias</t>
-  </si>
-  <si>
-    <t>10/10/2050</t>
-  </si>
-  <si>
-    <t>None pizza</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>58435551H</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>pepe@hotmail.com</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>A street</t>
+  </si>
+  <si>
+    <t>58462548L</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Fernandez</t>
+  </si>
+  <si>
+    <t>julian@hotmail.com</t>
+  </si>
+  <si>
+    <t>B street</t>
+  </si>
+  <si>
+    <t>23185484D</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t>teresa@hotmail.com</t>
+  </si>
+  <si>
+    <t>C street</t>
+  </si>
+  <si>
+    <t>D street</t>
+  </si>
+  <si>
+    <t>G street</t>
+  </si>
+  <si>
+    <t>H street</t>
+  </si>
+  <si>
+    <t>I street</t>
+  </si>
+  <si>
+    <t>J street</t>
+  </si>
+  <si>
+    <t>K street</t>
+  </si>
+  <si>
+    <t>L street</t>
+  </si>
+  <si>
+    <t>M street</t>
+  </si>
+  <si>
+    <t>N street</t>
+  </si>
+  <si>
+    <t>O street</t>
+  </si>
+  <si>
+    <t>P street</t>
+  </si>
+  <si>
+    <t>Q street</t>
+  </si>
+  <si>
+    <t>R street</t>
+  </si>
+  <si>
+    <t>S street</t>
+  </si>
+  <si>
+    <t>T street</t>
+  </si>
+  <si>
+    <t>U street</t>
+  </si>
+  <si>
+    <t>W street</t>
+  </si>
+  <si>
+    <t>X street</t>
+  </si>
+  <si>
+    <t>Y street</t>
+  </si>
+  <si>
+    <t>Z street</t>
+  </si>
+  <si>
+    <t>35848874F</t>
+  </si>
+  <si>
+    <t>58448544L</t>
+  </si>
+  <si>
+    <t>56842965K</t>
+  </si>
+  <si>
+    <t>79852655O</t>
+  </si>
+  <si>
+    <t>79862155S</t>
+  </si>
+  <si>
+    <t>52258848D</t>
+  </si>
+  <si>
+    <t>79624535C</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>54852488R</t>
+  </si>
+  <si>
+    <t>sergio@hotmail.com</t>
+  </si>
+  <si>
+    <t>gonzalez@hotmail.com</t>
+  </si>
+  <si>
+    <t>59526965A</t>
+  </si>
+  <si>
+    <t>75666543W</t>
+  </si>
+  <si>
+    <t>32519528T</t>
+  </si>
+  <si>
+    <t>75582695P</t>
+  </si>
+  <si>
+    <t>76965965V</t>
+  </si>
+  <si>
+    <t>58262648M</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>pablo@hotmail.com</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>lopez</t>
+  </si>
+  <si>
+    <t>juan@hotmail.com</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Guillermo</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Ines</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>pedro@hotmail.com</t>
+  </si>
+  <si>
+    <t>jorge@hotmail.com</t>
+  </si>
+  <si>
+    <t>guillermo@hotmail.com</t>
+  </si>
+  <si>
+    <t>javier@hotmail.com</t>
+  </si>
+  <si>
+    <t>miguel@hotmail.com</t>
+  </si>
+  <si>
+    <t>lucia@hotmail.com</t>
+  </si>
+  <si>
+    <t>laura@hotmail.com</t>
+  </si>
+  <si>
+    <t>ines@hotmail.com</t>
+  </si>
+  <si>
+    <t>oscar@hotmail.com</t>
+  </si>
+  <si>
+    <t>isabel@hotmail.com</t>
+  </si>
+  <si>
+    <t>elena@hotmail.com</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>paula@hotmail.com</t>
+  </si>
+  <si>
+    <t>diego@hotmail.com</t>
+  </si>
+  <si>
+    <t>daniel@hotmail.com</t>
+  </si>
+  <si>
+    <t>roberto@hotmail.com</t>
+  </si>
+  <si>
+    <t>patricia@hotmail.com</t>
+  </si>
+  <si>
+    <t>ana@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -104,15 +368,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,20 +390,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -144,6 +493,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G26" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:G26"/>
+  <tableColumns count="7">
+    <tableColumn id="2" name="First Name"/>
+    <tableColumn id="3" name="Last Name"/>
+    <tableColumn id="4" name="Email"/>
+    <tableColumn id="5" name="Date of Birth" dataDxfId="0"/>
+    <tableColumn id="6" name="Address"/>
+    <tableColumn id="7" name="Nationality"/>
+    <tableColumn id="1" name="ID"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,92 +808,651 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>29358</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
+        <v>27856</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>23931</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2">
+        <v>35506</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2">
+        <v>35506</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2">
+        <v>35506</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="2">
+        <v>35242</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="2">
+        <v>21412</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="2">
+        <v>13470</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="2">
+        <v>31702</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="2">
+        <v>27655</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5345</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="2">
+        <v>24158</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="2">
+        <v>31219</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="2">
+        <v>21419</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="2">
+        <v>28329</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="2">
+        <v>19811</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="2">
+        <v>21422</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2">
+        <v>32489</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="2">
+        <v>34242</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="2">
+        <v>32566</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="2">
+        <v>16684</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="2">
+        <v>25562</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="2">
+        <v>23247</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="2">
+        <v>28535</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C20" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
+    <hyperlink ref="C21" r:id="rId19"/>
+    <hyperlink ref="C22" r:id="rId20"/>
+    <hyperlink ref="C23" r:id="rId21"/>
+    <hyperlink ref="C24" r:id="rId22"/>
+    <hyperlink ref="C25" r:id="rId23"/>
+    <hyperlink ref="C26" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <tableParts count="1">
+    <tablePart r:id="rId26"/>
+  </tableParts>
 </worksheet>
 </file>